--- a/z/data/model/QC_Chart_Heavy_Metal_66_01_2018_012.xlsx
+++ b/z/data/model/QC_Chart_Heavy_Metal_66_01_2018_012.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F112E00-FED1-41D0-AE32-B75A854E897C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8374D2-8367-4E62-A0AA-A9BC91EA3AA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -656,7 +658,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="86">
   <si>
     <t>Chemical Name</t>
   </si>
@@ -911,31 +913,16 @@
     <t>说明：</t>
   </si>
   <si>
-    <t>2.C列为该单号的元素测试</t>
-  </si>
-  <si>
-    <t>3.B列中Date填的是日期</t>
-  </si>
-  <si>
-    <t>4.C列与B列Date通行的与B列其中一个单号一致</t>
-  </si>
-  <si>
     <t>补充说明</t>
   </si>
   <si>
     <t>如：Paint,0.1,25和M BS</t>
   </si>
   <si>
-    <t>1.B列与结果中的单号名称要一致,包括大小写</t>
-  </si>
-  <si>
     <t>如：M BS中的Pb元素的数值</t>
   </si>
   <si>
     <t>注意：由于CC每天可以测试多个，而质控每天只要一个，镍释放并不是每天都有，所以这些日期是不一样的</t>
-  </si>
-  <si>
-    <t>由于上述原因，当C列Date行为M BS时，填写的是M BS的日期；如果C列Date行为CC,那填写的是CC的日期</t>
   </si>
   <si>
     <t>5.所有有质量或者稀释的测试都用逗号隔开</t>
@@ -965,10 +952,33 @@
     <t>4.某天一次</t>
   </si>
   <si>
-    <t>如:ECO中Pb，由于与镍释放不一定一样，B列需要添加两行Date和ECO，C列添加ECO和Pb，同样引用</t>
+    <t>如:添加BLK中的Pb元素，直接在每天一次区域添加一行，这时由于BLK与M BS类型一致，Date行业可以改为BLK</t>
   </si>
   <si>
-    <t>如:添加BLK中的Pb元素，直接在每天一次区域添加一行，这时由于BLK与M BS类型一致，Date行业可以改为BLK</t>
+    <t>Element</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.Element列为该单号的元素测试</t>
+  </si>
+  <si>
+    <t>由于上述原因，当Element列Date行为M BS时，填写的是M BS的日期；如果Element列Date行为CC,那填写的是CC的日期</t>
+  </si>
+  <si>
+    <t>1.Materail列与结果中的单号名称要一致,包括大小写</t>
+  </si>
+  <si>
+    <t>3.Materail列中Date填的是日期</t>
+  </si>
+  <si>
+    <t>4.Element列与Materail列Date通行的与Materail列其中一个单号一致</t>
+  </si>
+  <si>
+    <t>如:ECO中Pb，由于与镍释放不一定一样，Materail列需要添加两行Date和ECO，Element列添加ECO和Pb，同样引用</t>
+  </si>
+  <si>
+    <t>6.第一行名称不能变，也不能重复</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -976,17 +986,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0_ "/>
-    <numFmt numFmtId="168" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="176" formatCode="0.00000"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="0.000"/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="180" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1019,7 +1029,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1092,7 +1102,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1106,7 +1116,7 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1114,7 +1124,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1589,7 +1599,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1606,26 +1616,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1649,14 +1659,14 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1668,10 +1678,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1683,13 +1693,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1698,10 +1708,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1752,13 +1762,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1767,7 +1777,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1779,7 +1789,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1794,31 +1804,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1875,8 +1885,26 @@
     <xf numFmtId="0" fontId="21" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -4229,7 +4257,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$C$38</c:f>
+              <c:f>Data!$C$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4254,7 +4282,7 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>(Data!$E$38,Data!$E$38)</c:f>
+              <c:f>(Data!$E$39,Data!$E$39)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4279,7 +4307,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$C$39</c:f>
+              <c:f>Data!$C$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4301,7 +4329,7 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>(Data!$E$39,Data!$E$39)</c:f>
+              <c:f>(Data!$E$40,Data!$E$40)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6396,7 +6424,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Data!$C$38</c15:sqref>
+                          <c15:sqref>Data!$C$39</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6427,7 +6455,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>(Data!$E$38,Data!$E$38)</c15:sqref>
+                          <c15:sqref>(Data!$E$39,Data!$E$39)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6460,7 +6488,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Data!$C$39</c15:sqref>
+                          <c15:sqref>Data!$C$40</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6488,7 +6516,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>(Data!$E$39,Data!$E$39)</c15:sqref>
+                          <c15:sqref>(Data!$E$40,Data!$E$40)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8531,7 +8559,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Data!$C$38</c15:sqref>
+                          <c15:sqref>Data!$C$39</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8562,7 +8590,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>(Data!$E$38,Data!$E$38)</c15:sqref>
+                          <c15:sqref>(Data!$E$39,Data!$E$39)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8595,7 +8623,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Data!$C$39</c15:sqref>
+                          <c15:sqref>Data!$C$40</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8623,7 +8651,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>(Data!$E$39,Data!$E$39)</c15:sqref>
+                          <c15:sqref>(Data!$E$40,Data!$E$40)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9553,26 +9581,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BDS39"/>
+  <dimension ref="A1:BDS40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L35" sqref="L35"/>
+      <selection pane="topRight" activeCell="B23" sqref="B23:Q34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" style="63" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="71"/>
-    <col min="3" max="3" width="21.140625" style="64" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="64" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="64" customWidth="1"/>
+    <col min="3" max="3" width="21.1328125" style="64" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" style="64" customWidth="1"/>
+    <col min="5" max="5" width="13.59765625" style="64" customWidth="1"/>
     <col min="6" max="124" width="9" style="64"/>
     <col min="125" max="125" width="0" style="64" hidden="1" customWidth="1"/>
     <col min="126" max="16384" width="9" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1475" s="42" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="1" spans="1:1475" s="42" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="41" t="s">
         <v>57</v>
       </c>
@@ -9580,7 +9608,7 @@
         <v>58</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D1" s="42" t="s">
         <v>62</v>
@@ -11059,7 +11087,7 @@
       <c r="BDR1" s="52"/>
       <c r="BDS1" s="53"/>
     </row>
-    <row r="2" spans="1:1475" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="2" spans="1:1475" s="57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="41">
         <v>1</v>
       </c>
@@ -12545,7 +12573,7 @@
       <c r="BDQ2" s="55"/>
       <c r="BDR2" s="56"/>
     </row>
-    <row r="3" spans="1:1475" s="59" customFormat="1" ht="16.5" thickBot="1">
+    <row r="3" spans="1:1475" s="59" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="41">
         <v>2</v>
       </c>
@@ -14031,7 +14059,7 @@
       <c r="BDQ3" s="31"/>
       <c r="BDR3" s="58"/>
     </row>
-    <row r="4" spans="1:1475" s="60" customFormat="1" ht="16.5" thickBot="1">
+    <row r="4" spans="1:1475" s="60" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="41">
         <v>3</v>
       </c>
@@ -15516,7 +15544,7 @@
       <c r="BDP4" s="11"/>
       <c r="BDQ4" s="12"/>
     </row>
-    <row r="5" spans="1:1475" s="60" customFormat="1" ht="16.5" thickBot="1">
+    <row r="5" spans="1:1475" s="60" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="41">
         <v>4</v>
       </c>
@@ -17001,7 +17029,7 @@
       <c r="BDP5" s="11"/>
       <c r="BDQ5" s="12"/>
     </row>
-    <row r="6" spans="1:1475" s="60" customFormat="1" ht="16.5" thickBot="1">
+    <row r="6" spans="1:1475" s="60" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="41">
         <v>5</v>
       </c>
@@ -18486,7 +18514,7 @@
       <c r="BDP6" s="11"/>
       <c r="BDQ6" s="12"/>
     </row>
-    <row r="7" spans="1:1475" s="60" customFormat="1" ht="16.5" thickBot="1">
+    <row r="7" spans="1:1475" s="60" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="41">
         <v>6</v>
       </c>
@@ -19971,7 +19999,7 @@
       <c r="BDP7" s="11"/>
       <c r="BDQ7" s="12"/>
     </row>
-    <row r="8" spans="1:1475" s="60" customFormat="1" ht="16.5" thickBot="1">
+    <row r="8" spans="1:1475" s="60" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="41">
         <v>7</v>
       </c>
@@ -21456,7 +21484,7 @@
       <c r="BDP8" s="11"/>
       <c r="BDQ8" s="12"/>
     </row>
-    <row r="9" spans="1:1475" s="60" customFormat="1" ht="16.5" thickBot="1">
+    <row r="9" spans="1:1475" s="60" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="41">
         <v>8</v>
       </c>
@@ -22941,7 +22969,7 @@
       <c r="BDP9" s="11"/>
       <c r="BDQ9" s="12"/>
     </row>
-    <row r="10" spans="1:1475" s="61" customFormat="1" ht="16.5" thickBot="1">
+    <row r="10" spans="1:1475" s="61" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="41">
         <v>9</v>
       </c>
@@ -24415,7 +24443,7 @@
       <c r="BDP10" s="49"/>
       <c r="BDQ10" s="48"/>
     </row>
-    <row r="11" spans="1:1475" s="60" customFormat="1" ht="16.5" thickBot="1">
+    <row r="11" spans="1:1475" s="60" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="41">
         <v>10</v>
       </c>
@@ -25900,7 +25928,7 @@
       <c r="BDP11" s="36"/>
       <c r="BDQ11" s="37"/>
     </row>
-    <row r="12" spans="1:1475" s="60" customFormat="1" ht="16.5" thickBot="1">
+    <row r="12" spans="1:1475" s="60" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="41">
         <v>11</v>
       </c>
@@ -27385,7 +27413,7 @@
       <c r="BDP12" s="36"/>
       <c r="BDQ12" s="37"/>
     </row>
-    <row r="13" spans="1:1475" s="60" customFormat="1" ht="16.5" thickBot="1">
+    <row r="13" spans="1:1475" s="60" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="41">
         <v>12</v>
       </c>
@@ -28870,7 +28898,7 @@
       <c r="BDP13" s="36"/>
       <c r="BDQ13" s="37"/>
     </row>
-    <row r="14" spans="1:1475" s="60" customFormat="1" ht="16.5" thickBot="1">
+    <row r="14" spans="1:1475" s="60" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="41">
         <v>13</v>
       </c>
@@ -30355,7 +30383,7 @@
       <c r="BDP14" s="36"/>
       <c r="BDQ14" s="37"/>
     </row>
-    <row r="15" spans="1:1475" s="60" customFormat="1" ht="16.5" thickBot="1">
+    <row r="15" spans="1:1475" s="60" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="41">
         <v>14</v>
       </c>
@@ -31840,7 +31868,7 @@
       <c r="BDP15" s="36"/>
       <c r="BDQ15" s="37"/>
     </row>
-    <row r="16" spans="1:1475" s="60" customFormat="1" ht="16.5" thickBot="1">
+    <row r="16" spans="1:1475" s="60" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="41">
         <v>15</v>
       </c>
@@ -33325,7 +33353,7 @@
       <c r="BDP16" s="36"/>
       <c r="BDQ16" s="37"/>
     </row>
-    <row r="17" spans="1:1473" s="60" customFormat="1" ht="16.5" thickBot="1">
+    <row r="17" spans="1:1473" s="60" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="41">
         <v>16</v>
       </c>
@@ -34810,7 +34838,7 @@
       <c r="BDP17" s="36"/>
       <c r="BDQ17" s="37"/>
     </row>
-    <row r="18" spans="1:1473" s="60" customFormat="1" ht="16.5" thickBot="1">
+    <row r="18" spans="1:1473" s="60" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="41">
         <v>17</v>
       </c>
@@ -36295,7 +36323,7 @@
       <c r="BDP18" s="36"/>
       <c r="BDQ18" s="37"/>
     </row>
-    <row r="19" spans="1:1473" s="60" customFormat="1" ht="16.5" thickBot="1">
+    <row r="19" spans="1:1473" s="60" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="41">
         <v>18</v>
       </c>
@@ -37780,7 +37808,7 @@
       <c r="BDP19" s="36"/>
       <c r="BDQ19" s="37"/>
     </row>
-    <row r="20" spans="1:1473" s="61" customFormat="1" ht="16.5" thickBot="1">
+    <row r="20" spans="1:1473" s="61" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="41">
         <v>19</v>
       </c>
@@ -39265,7 +39293,7 @@
       <c r="BDP20" s="50"/>
       <c r="BDQ20" s="51"/>
     </row>
-    <row r="21" spans="1:1473" s="62" customFormat="1" ht="31.5">
+    <row r="21" spans="1:1473" s="62" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="41">
         <v>20</v>
       </c>
@@ -39357,7 +39385,7 @@
       <c r="LG21" s="38"/>
       <c r="LH21" s="38"/>
     </row>
-    <row r="22" spans="1:1473" ht="15.75">
+    <row r="22" spans="1:1473" ht="15.4" x14ac:dyDescent="0.3">
       <c r="Y22" s="65"/>
       <c r="IL22" s="7"/>
       <c r="IM22" s="7"/>
@@ -39435,14 +39463,15 @@
       <c r="LG22" s="7"/>
       <c r="LH22" s="7"/>
     </row>
-    <row r="23" spans="1:1473" ht="15.75">
-      <c r="C23" s="82" t="s">
+    <row r="23" spans="1:1473" ht="15.4" x14ac:dyDescent="0.3">
+      <c r="B23" s="82" t="s">
         <v>63</v>
       </c>
+      <c r="C23" s="82"/>
       <c r="D23" s="82"/>
       <c r="E23" s="82"/>
       <c r="F23" s="81" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G23" s="81"/>
       <c r="H23" s="81"/>
@@ -39532,16 +39561,16 @@
       <c r="LG23" s="7"/>
       <c r="LH23" s="7"/>
     </row>
-    <row r="24" spans="1:1473" ht="15.75">
+    <row r="24" spans="1:1473" ht="15.4" x14ac:dyDescent="0.3">
       <c r="A24" s="64"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="80" t="s">
-        <v>69</v>
-      </c>
+      <c r="B24" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="80"/>
       <c r="D24" s="80"/>
       <c r="E24" s="80"/>
       <c r="F24" s="80" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G24" s="80"/>
       <c r="H24" s="80"/>
@@ -39631,14 +39660,15 @@
       <c r="LG24" s="7"/>
       <c r="LH24" s="7"/>
     </row>
-    <row r="25" spans="1:1473" ht="15.75">
-      <c r="C25" s="80" t="s">
-        <v>64</v>
-      </c>
+    <row r="25" spans="1:1473" ht="15.4" x14ac:dyDescent="0.3">
+      <c r="B25" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="80"/>
       <c r="D25" s="80"/>
       <c r="E25" s="80"/>
       <c r="F25" s="80" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G25" s="80"/>
       <c r="H25" s="80"/>
@@ -39728,14 +39758,15 @@
       <c r="LG25" s="7"/>
       <c r="LH25" s="7"/>
     </row>
-    <row r="26" spans="1:1473" ht="15.75">
-      <c r="C26" s="80" t="s">
-        <v>65</v>
-      </c>
+    <row r="26" spans="1:1473" ht="15.4" x14ac:dyDescent="0.3">
+      <c r="B26" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="80"/>
       <c r="D26" s="80"/>
       <c r="E26" s="80"/>
       <c r="F26" s="80" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G26" s="80"/>
       <c r="H26" s="80"/>
@@ -39825,14 +39856,15 @@
       <c r="LG26" s="7"/>
       <c r="LH26" s="7"/>
     </row>
-    <row r="27" spans="1:1473" ht="15.75">
-      <c r="C27" s="80" t="s">
-        <v>66</v>
-      </c>
+    <row r="27" spans="1:1473" ht="15.4" x14ac:dyDescent="0.3">
+      <c r="B27" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="80"/>
       <c r="D27" s="80"/>
       <c r="E27" s="80"/>
       <c r="F27" s="80" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G27" s="80"/>
       <c r="H27" s="80"/>
@@ -39922,14 +39954,15 @@
       <c r="LG27" s="7"/>
       <c r="LH27" s="7"/>
     </row>
-    <row r="28" spans="1:1473" ht="15.75">
-      <c r="C28" s="80" t="s">
-        <v>73</v>
-      </c>
+    <row r="28" spans="1:1473" ht="15.4" x14ac:dyDescent="0.3">
+      <c r="B28" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="80"/>
       <c r="D28" s="80"/>
       <c r="E28" s="80"/>
       <c r="F28" s="80" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G28" s="80"/>
       <c r="H28" s="80"/>
@@ -40019,24 +40052,25 @@
       <c r="LG28" s="7"/>
       <c r="LH28" s="7"/>
     </row>
-    <row r="29" spans="1:1473" ht="15.75">
-      <c r="C29" s="81" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="81"/>
-      <c r="P29" s="81"/>
-      <c r="Q29" s="81"/>
+    <row r="29" spans="1:1473" ht="15.4" x14ac:dyDescent="0.3">
+      <c r="B29" s="105" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="103"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="103"/>
+      <c r="P29" s="103"/>
+      <c r="Q29" s="104"/>
       <c r="Y29" s="65"/>
       <c r="IL29" s="7"/>
       <c r="IM29" s="7"/>
@@ -40114,15 +40148,14 @@
       <c r="LG29" s="7"/>
       <c r="LH29" s="7"/>
     </row>
-    <row r="30" spans="1:1473" ht="15.75">
-      <c r="C30" s="80" t="s">
-        <v>77</v>
-      </c>
+    <row r="30" spans="1:1473" ht="15.4" x14ac:dyDescent="0.3">
+      <c r="B30" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="80"/>
       <c r="D30" s="80"/>
       <c r="E30" s="80"/>
-      <c r="F30" s="80" t="s">
-        <v>76</v>
-      </c>
+      <c r="F30" s="80"/>
       <c r="G30" s="80"/>
       <c r="H30" s="80"/>
       <c r="I30" s="80"/>
@@ -40211,14 +40244,15 @@
       <c r="LG30" s="7"/>
       <c r="LH30" s="7"/>
     </row>
-    <row r="31" spans="1:1473" ht="15.75">
-      <c r="C31" s="80" t="s">
-        <v>78</v>
-      </c>
+    <row r="31" spans="1:1473" ht="15.4" x14ac:dyDescent="0.3">
+      <c r="B31" s="80" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="80"/>
       <c r="D31" s="80"/>
       <c r="E31" s="80"/>
       <c r="F31" s="80" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G31" s="80"/>
       <c r="H31" s="80"/>
@@ -40308,14 +40342,15 @@
       <c r="LG31" s="7"/>
       <c r="LH31" s="7"/>
     </row>
-    <row r="32" spans="1:1473" ht="15.75">
-      <c r="C32" s="80" t="s">
-        <v>79</v>
-      </c>
+    <row r="32" spans="1:1473" ht="15.4" x14ac:dyDescent="0.3">
+      <c r="B32" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="80"/>
       <c r="D32" s="80"/>
       <c r="E32" s="80"/>
       <c r="F32" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G32" s="80"/>
       <c r="H32" s="80"/>
@@ -40405,14 +40440,15 @@
       <c r="LG32" s="7"/>
       <c r="LH32" s="7"/>
     </row>
-    <row r="33" spans="3:441 1440:1440" ht="15.75">
-      <c r="C33" s="80" t="s">
-        <v>81</v>
-      </c>
+    <row r="33" spans="2:441 1440:1440" ht="15.4" x14ac:dyDescent="0.3">
+      <c r="B33" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="80"/>
       <c r="D33" s="80"/>
       <c r="E33" s="80"/>
       <c r="F33" s="80" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G33" s="80"/>
       <c r="H33" s="80"/>
@@ -40502,7 +40538,27 @@
       <c r="LG33" s="7"/>
       <c r="LH33" s="7"/>
     </row>
-    <row r="34" spans="3:441 1440:1440" ht="15.75">
+    <row r="34" spans="2:441 1440:1440" ht="15.4" x14ac:dyDescent="0.3">
+      <c r="B34" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="80"/>
+      <c r="N34" s="80"/>
+      <c r="O34" s="80"/>
+      <c r="P34" s="80"/>
+      <c r="Q34" s="80"/>
       <c r="Y34" s="65"/>
       <c r="IL34" s="7"/>
       <c r="IM34" s="7"/>
@@ -40580,63 +40636,64 @@
       <c r="LG34" s="7"/>
       <c r="LH34" s="7"/>
     </row>
-    <row r="35" spans="3:441 1440:1440" ht="15.75">
-      <c r="IL35" s="65"/>
-      <c r="IM35" s="65"/>
-      <c r="IN35" s="65"/>
-      <c r="IO35" s="65"/>
-      <c r="IP35" s="65"/>
-      <c r="IQ35" s="65"/>
-      <c r="IR35" s="65"/>
-      <c r="IS35" s="65"/>
-      <c r="IT35" s="65"/>
-      <c r="IU35" s="65"/>
-      <c r="IV35" s="65"/>
-      <c r="IW35" s="65"/>
-      <c r="IX35" s="65"/>
-      <c r="IY35" s="65"/>
-      <c r="IZ35" s="65"/>
-      <c r="JA35" s="65"/>
-      <c r="JB35" s="65"/>
-      <c r="JC35" s="65"/>
-      <c r="JD35" s="65"/>
-      <c r="JE35" s="65"/>
-      <c r="JF35" s="65"/>
-      <c r="JG35" s="65"/>
-      <c r="JH35" s="65"/>
-      <c r="JI35" s="65"/>
-      <c r="JJ35" s="65"/>
-      <c r="JK35" s="65"/>
-      <c r="JL35" s="65"/>
-      <c r="JM35" s="65"/>
-      <c r="JN35" s="65"/>
-      <c r="JO35" s="65"/>
-      <c r="JP35" s="65"/>
-      <c r="JQ35" s="65"/>
-      <c r="JR35" s="65"/>
-      <c r="JS35" s="65"/>
-      <c r="JT35" s="65"/>
-      <c r="JU35" s="65"/>
-      <c r="JV35" s="65"/>
-      <c r="JW35" s="65"/>
-      <c r="JX35" s="65"/>
-      <c r="JY35" s="65"/>
-      <c r="JZ35" s="65"/>
-      <c r="KA35" s="65"/>
-      <c r="KB35" s="65"/>
-      <c r="KC35" s="65"/>
-      <c r="KD35" s="65"/>
-      <c r="KE35" s="65"/>
-      <c r="KF35" s="65"/>
-      <c r="KG35" s="65"/>
-      <c r="KH35" s="65"/>
-      <c r="KI35" s="65"/>
-      <c r="KJ35" s="65"/>
-      <c r="KK35" s="65"/>
-      <c r="KL35" s="65"/>
-      <c r="KM35" s="65"/>
-      <c r="KN35" s="65"/>
-      <c r="KO35" s="65"/>
+    <row r="35" spans="2:441 1440:1440" ht="15.4" x14ac:dyDescent="0.3">
+      <c r="Y35" s="65"/>
+      <c r="IL35" s="7"/>
+      <c r="IM35" s="7"/>
+      <c r="IN35" s="7"/>
+      <c r="IO35" s="7"/>
+      <c r="IP35" s="7"/>
+      <c r="IQ35" s="7"/>
+      <c r="IR35" s="7"/>
+      <c r="IS35" s="7"/>
+      <c r="IT35" s="7"/>
+      <c r="IU35" s="7"/>
+      <c r="IV35" s="7"/>
+      <c r="IW35" s="7"/>
+      <c r="IX35" s="7"/>
+      <c r="IY35" s="7"/>
+      <c r="IZ35" s="7"/>
+      <c r="JA35" s="7"/>
+      <c r="JB35" s="7"/>
+      <c r="JC35" s="7"/>
+      <c r="JD35" s="7"/>
+      <c r="JE35" s="7"/>
+      <c r="JF35" s="7"/>
+      <c r="JG35" s="7"/>
+      <c r="JH35" s="7"/>
+      <c r="JI35" s="7"/>
+      <c r="JJ35" s="7"/>
+      <c r="JK35" s="7"/>
+      <c r="JL35" s="7"/>
+      <c r="JM35" s="7"/>
+      <c r="JN35" s="7"/>
+      <c r="JO35" s="7"/>
+      <c r="JP35" s="7"/>
+      <c r="JQ35" s="7"/>
+      <c r="JR35" s="7"/>
+      <c r="JS35" s="7"/>
+      <c r="JT35" s="7"/>
+      <c r="JU35" s="7"/>
+      <c r="JV35" s="7"/>
+      <c r="JW35" s="7"/>
+      <c r="JX35" s="7"/>
+      <c r="JY35" s="7"/>
+      <c r="JZ35" s="7"/>
+      <c r="KA35" s="7"/>
+      <c r="KB35" s="7"/>
+      <c r="KC35" s="7"/>
+      <c r="KD35" s="7"/>
+      <c r="KE35" s="7"/>
+      <c r="KF35" s="7"/>
+      <c r="KG35" s="7"/>
+      <c r="KH35" s="7"/>
+      <c r="KI35" s="7"/>
+      <c r="KJ35" s="7"/>
+      <c r="KK35" s="7"/>
+      <c r="KL35" s="7"/>
+      <c r="KM35" s="7"/>
+      <c r="KN35" s="7"/>
+      <c r="KO35" s="7"/>
       <c r="KP35" s="7"/>
       <c r="KQ35" s="7"/>
       <c r="KR35" s="7"/>
@@ -40656,129 +40713,8 @@
       <c r="LF35" s="7"/>
       <c r="LG35" s="7"/>
       <c r="LH35" s="7"/>
-      <c r="LI35" s="65"/>
-      <c r="LJ35" s="65"/>
-      <c r="LK35" s="65"/>
-      <c r="LL35" s="65"/>
-      <c r="LM35" s="65"/>
-      <c r="LN35" s="65"/>
-      <c r="LO35" s="65"/>
-      <c r="LP35" s="65"/>
-      <c r="LQ35" s="65"/>
-      <c r="LR35" s="65"/>
-      <c r="LS35" s="65"/>
-      <c r="LT35" s="65"/>
-      <c r="LU35" s="65"/>
-      <c r="LV35" s="65"/>
-      <c r="LW35" s="65"/>
-      <c r="LX35" s="65"/>
-      <c r="LY35" s="65"/>
-      <c r="LZ35" s="65"/>
-      <c r="MA35" s="65"/>
-      <c r="MB35" s="65"/>
-      <c r="MC35" s="65"/>
-      <c r="MD35" s="65"/>
-      <c r="ME35" s="65"/>
-      <c r="MF35" s="65"/>
-      <c r="MG35" s="65"/>
-      <c r="MH35" s="65"/>
-      <c r="MI35" s="65"/>
-      <c r="MJ35" s="65"/>
-      <c r="MK35" s="65"/>
-      <c r="ML35" s="65"/>
-      <c r="MM35" s="65"/>
-      <c r="MN35" s="65"/>
-      <c r="MO35" s="65"/>
-      <c r="MP35" s="65"/>
-      <c r="MQ35" s="65"/>
-      <c r="MR35" s="65"/>
-      <c r="MS35" s="65"/>
-      <c r="MT35" s="65"/>
-      <c r="MU35" s="65"/>
-      <c r="MV35" s="65"/>
-      <c r="MW35" s="65"/>
-      <c r="MX35" s="65"/>
-      <c r="MY35" s="65"/>
-      <c r="MZ35" s="65"/>
-      <c r="NA35" s="65"/>
-      <c r="NB35" s="65"/>
-      <c r="NC35" s="65"/>
-      <c r="ND35" s="65"/>
-      <c r="NE35" s="65"/>
-      <c r="NF35" s="65"/>
-      <c r="NG35" s="65"/>
-      <c r="NH35" s="65"/>
-      <c r="NI35" s="65"/>
-      <c r="NJ35" s="65"/>
-      <c r="NK35" s="65"/>
-      <c r="NL35" s="65"/>
-      <c r="NM35" s="65"/>
-      <c r="NN35" s="65"/>
-      <c r="NO35" s="65"/>
-      <c r="NP35" s="65"/>
-      <c r="NQ35" s="65"/>
-      <c r="NR35" s="65"/>
-      <c r="NS35" s="65"/>
-      <c r="NT35" s="65"/>
-      <c r="NU35" s="65"/>
-      <c r="NV35" s="65"/>
-      <c r="NW35" s="65"/>
-      <c r="NX35" s="65"/>
-      <c r="NY35" s="65"/>
-      <c r="NZ35" s="65"/>
-      <c r="OA35" s="65"/>
-      <c r="OB35" s="65"/>
-      <c r="OC35" s="65"/>
-      <c r="OD35" s="65"/>
-      <c r="OE35" s="65"/>
-      <c r="OF35" s="65"/>
-      <c r="OG35" s="65"/>
-      <c r="OH35" s="65"/>
-      <c r="OI35" s="65"/>
-      <c r="OJ35" s="65"/>
-      <c r="OK35" s="65"/>
-      <c r="OL35" s="65"/>
-      <c r="OM35" s="65"/>
-      <c r="ON35" s="65"/>
-      <c r="OO35" s="65"/>
-      <c r="OP35" s="65"/>
-      <c r="OQ35" s="65"/>
-      <c r="OR35" s="65"/>
-      <c r="OS35" s="65"/>
-      <c r="OT35" s="65"/>
-      <c r="OU35" s="65"/>
-      <c r="OV35" s="65"/>
-      <c r="OW35" s="65"/>
-      <c r="OX35" s="65"/>
-      <c r="OY35" s="65"/>
-      <c r="OZ35" s="65"/>
-      <c r="PA35" s="65"/>
-      <c r="PB35" s="65"/>
-      <c r="PC35" s="65"/>
-      <c r="PD35" s="65"/>
-      <c r="PE35" s="65"/>
-      <c r="PF35" s="65"/>
-      <c r="PG35" s="65"/>
-      <c r="PH35" s="65"/>
-      <c r="PI35" s="65"/>
-      <c r="PJ35" s="65"/>
-      <c r="PK35" s="65"/>
-      <c r="PL35" s="65"/>
-      <c r="PM35" s="65"/>
-      <c r="PN35" s="65"/>
-      <c r="PO35" s="65"/>
-      <c r="PP35" s="65"/>
-      <c r="PQ35" s="65"/>
-      <c r="PR35" s="65"/>
-      <c r="PS35" s="65"/>
-      <c r="PT35" s="65"/>
-      <c r="PU35" s="65"/>
-      <c r="PV35" s="65"/>
-      <c r="PW35" s="65"/>
-      <c r="PX35" s="65"/>
-      <c r="PY35" s="65"/>
     </row>
-    <row r="36" spans="3:441 1440:1440" ht="16.5" thickBot="1">
+    <row r="36" spans="2:441 1440:1440" ht="15.4" x14ac:dyDescent="0.3">
       <c r="IL36" s="65"/>
       <c r="IM36" s="65"/>
       <c r="IN36" s="65"/>
@@ -40976,77 +40912,277 @@
       <c r="PX36" s="65"/>
       <c r="PY36" s="65"/>
     </row>
-    <row r="37" spans="3:441 1440:1440" ht="15.75" thickBot="1">
-      <c r="C37" s="66" t="s">
+    <row r="37" spans="2:441 1440:1440" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="IL37" s="65"/>
+      <c r="IM37" s="65"/>
+      <c r="IN37" s="65"/>
+      <c r="IO37" s="65"/>
+      <c r="IP37" s="65"/>
+      <c r="IQ37" s="65"/>
+      <c r="IR37" s="65"/>
+      <c r="IS37" s="65"/>
+      <c r="IT37" s="65"/>
+      <c r="IU37" s="65"/>
+      <c r="IV37" s="65"/>
+      <c r="IW37" s="65"/>
+      <c r="IX37" s="65"/>
+      <c r="IY37" s="65"/>
+      <c r="IZ37" s="65"/>
+      <c r="JA37" s="65"/>
+      <c r="JB37" s="65"/>
+      <c r="JC37" s="65"/>
+      <c r="JD37" s="65"/>
+      <c r="JE37" s="65"/>
+      <c r="JF37" s="65"/>
+      <c r="JG37" s="65"/>
+      <c r="JH37" s="65"/>
+      <c r="JI37" s="65"/>
+      <c r="JJ37" s="65"/>
+      <c r="JK37" s="65"/>
+      <c r="JL37" s="65"/>
+      <c r="JM37" s="65"/>
+      <c r="JN37" s="65"/>
+      <c r="JO37" s="65"/>
+      <c r="JP37" s="65"/>
+      <c r="JQ37" s="65"/>
+      <c r="JR37" s="65"/>
+      <c r="JS37" s="65"/>
+      <c r="JT37" s="65"/>
+      <c r="JU37" s="65"/>
+      <c r="JV37" s="65"/>
+      <c r="JW37" s="65"/>
+      <c r="JX37" s="65"/>
+      <c r="JY37" s="65"/>
+      <c r="JZ37" s="65"/>
+      <c r="KA37" s="65"/>
+      <c r="KB37" s="65"/>
+      <c r="KC37" s="65"/>
+      <c r="KD37" s="65"/>
+      <c r="KE37" s="65"/>
+      <c r="KF37" s="65"/>
+      <c r="KG37" s="65"/>
+      <c r="KH37" s="65"/>
+      <c r="KI37" s="65"/>
+      <c r="KJ37" s="65"/>
+      <c r="KK37" s="65"/>
+      <c r="KL37" s="65"/>
+      <c r="KM37" s="65"/>
+      <c r="KN37" s="65"/>
+      <c r="KO37" s="65"/>
+      <c r="KP37" s="7"/>
+      <c r="KQ37" s="7"/>
+      <c r="KR37" s="7"/>
+      <c r="KS37" s="7"/>
+      <c r="KT37" s="7"/>
+      <c r="KU37" s="7"/>
+      <c r="KV37" s="7"/>
+      <c r="KW37" s="7"/>
+      <c r="KX37" s="7"/>
+      <c r="KY37" s="7"/>
+      <c r="KZ37" s="7"/>
+      <c r="LA37" s="7"/>
+      <c r="LB37" s="7"/>
+      <c r="LC37" s="7"/>
+      <c r="LD37" s="7"/>
+      <c r="LE37" s="7"/>
+      <c r="LF37" s="7"/>
+      <c r="LG37" s="7"/>
+      <c r="LH37" s="7"/>
+      <c r="LI37" s="65"/>
+      <c r="LJ37" s="65"/>
+      <c r="LK37" s="65"/>
+      <c r="LL37" s="65"/>
+      <c r="LM37" s="65"/>
+      <c r="LN37" s="65"/>
+      <c r="LO37" s="65"/>
+      <c r="LP37" s="65"/>
+      <c r="LQ37" s="65"/>
+      <c r="LR37" s="65"/>
+      <c r="LS37" s="65"/>
+      <c r="LT37" s="65"/>
+      <c r="LU37" s="65"/>
+      <c r="LV37" s="65"/>
+      <c r="LW37" s="65"/>
+      <c r="LX37" s="65"/>
+      <c r="LY37" s="65"/>
+      <c r="LZ37" s="65"/>
+      <c r="MA37" s="65"/>
+      <c r="MB37" s="65"/>
+      <c r="MC37" s="65"/>
+      <c r="MD37" s="65"/>
+      <c r="ME37" s="65"/>
+      <c r="MF37" s="65"/>
+      <c r="MG37" s="65"/>
+      <c r="MH37" s="65"/>
+      <c r="MI37" s="65"/>
+      <c r="MJ37" s="65"/>
+      <c r="MK37" s="65"/>
+      <c r="ML37" s="65"/>
+      <c r="MM37" s="65"/>
+      <c r="MN37" s="65"/>
+      <c r="MO37" s="65"/>
+      <c r="MP37" s="65"/>
+      <c r="MQ37" s="65"/>
+      <c r="MR37" s="65"/>
+      <c r="MS37" s="65"/>
+      <c r="MT37" s="65"/>
+      <c r="MU37" s="65"/>
+      <c r="MV37" s="65"/>
+      <c r="MW37" s="65"/>
+      <c r="MX37" s="65"/>
+      <c r="MY37" s="65"/>
+      <c r="MZ37" s="65"/>
+      <c r="NA37" s="65"/>
+      <c r="NB37" s="65"/>
+      <c r="NC37" s="65"/>
+      <c r="ND37" s="65"/>
+      <c r="NE37" s="65"/>
+      <c r="NF37" s="65"/>
+      <c r="NG37" s="65"/>
+      <c r="NH37" s="65"/>
+      <c r="NI37" s="65"/>
+      <c r="NJ37" s="65"/>
+      <c r="NK37" s="65"/>
+      <c r="NL37" s="65"/>
+      <c r="NM37" s="65"/>
+      <c r="NN37" s="65"/>
+      <c r="NO37" s="65"/>
+      <c r="NP37" s="65"/>
+      <c r="NQ37" s="65"/>
+      <c r="NR37" s="65"/>
+      <c r="NS37" s="65"/>
+      <c r="NT37" s="65"/>
+      <c r="NU37" s="65"/>
+      <c r="NV37" s="65"/>
+      <c r="NW37" s="65"/>
+      <c r="NX37" s="65"/>
+      <c r="NY37" s="65"/>
+      <c r="NZ37" s="65"/>
+      <c r="OA37" s="65"/>
+      <c r="OB37" s="65"/>
+      <c r="OC37" s="65"/>
+      <c r="OD37" s="65"/>
+      <c r="OE37" s="65"/>
+      <c r="OF37" s="65"/>
+      <c r="OG37" s="65"/>
+      <c r="OH37" s="65"/>
+      <c r="OI37" s="65"/>
+      <c r="OJ37" s="65"/>
+      <c r="OK37" s="65"/>
+      <c r="OL37" s="65"/>
+      <c r="OM37" s="65"/>
+      <c r="ON37" s="65"/>
+      <c r="OO37" s="65"/>
+      <c r="OP37" s="65"/>
+      <c r="OQ37" s="65"/>
+      <c r="OR37" s="65"/>
+      <c r="OS37" s="65"/>
+      <c r="OT37" s="65"/>
+      <c r="OU37" s="65"/>
+      <c r="OV37" s="65"/>
+      <c r="OW37" s="65"/>
+      <c r="OX37" s="65"/>
+      <c r="OY37" s="65"/>
+      <c r="OZ37" s="65"/>
+      <c r="PA37" s="65"/>
+      <c r="PB37" s="65"/>
+      <c r="PC37" s="65"/>
+      <c r="PD37" s="65"/>
+      <c r="PE37" s="65"/>
+      <c r="PF37" s="65"/>
+      <c r="PG37" s="65"/>
+      <c r="PH37" s="65"/>
+      <c r="PI37" s="65"/>
+      <c r="PJ37" s="65"/>
+      <c r="PK37" s="65"/>
+      <c r="PL37" s="65"/>
+      <c r="PM37" s="65"/>
+      <c r="PN37" s="65"/>
+      <c r="PO37" s="65"/>
+      <c r="PP37" s="65"/>
+      <c r="PQ37" s="65"/>
+      <c r="PR37" s="65"/>
+      <c r="PS37" s="65"/>
+      <c r="PT37" s="65"/>
+      <c r="PU37" s="65"/>
+      <c r="PV37" s="65"/>
+      <c r="PW37" s="65"/>
+      <c r="PX37" s="65"/>
+      <c r="PY37" s="65"/>
+    </row>
+    <row r="38" spans="2:441 1440:1440" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="67">
+      <c r="D38" s="67">
         <v>0.5</v>
       </c>
-      <c r="E37" s="68" t="s">
+      <c r="E38" s="68" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="3:441 1440:1440" ht="15.75" thickBot="1">
-      <c r="C38" s="66" t="s">
+    <row r="39" spans="2:441 1440:1440" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="69">
+      <c r="D39" s="69">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E38" s="70">
-        <f>D37*D38</f>
+      <c r="E39" s="70">
+        <f>D38*D39</f>
         <v>0.55000000000000004</v>
-      </c>
-      <c r="F38" s="68" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="3:441 1440:1440" ht="16.5" thickBot="1">
-      <c r="C39" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="69">
-        <v>0.9</v>
-      </c>
-      <c r="E39" s="70">
-        <f>D37*D39</f>
-        <v>0.45</v>
       </c>
       <c r="F39" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="BCJ39" s="6"/>
+    </row>
+    <row r="40" spans="2:441 1440:1440" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="69">
+        <v>0.9</v>
+      </c>
+      <c r="E40" s="70">
+        <f>D38*D40</f>
+        <v>0.45</v>
+      </c>
+      <c r="F40" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="BCJ40" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
+  <mergeCells count="23">
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B30:Q30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:Q29"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F23:Q23"/>
+    <mergeCell ref="F28:Q28"/>
+    <mergeCell ref="F31:Q31"/>
+    <mergeCell ref="F32:Q32"/>
     <mergeCell ref="F26:Q26"/>
     <mergeCell ref="F27:Q27"/>
     <mergeCell ref="F25:Q25"/>
     <mergeCell ref="F24:Q24"/>
-    <mergeCell ref="F23:Q23"/>
-    <mergeCell ref="F28:Q28"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F30:Q30"/>
-    <mergeCell ref="F31:Q31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:Q32"/>
-    <mergeCell ref="C33:E33"/>
     <mergeCell ref="F33:Q33"/>
-    <mergeCell ref="C29:Q29"/>
+    <mergeCell ref="F34:Q34"/>
+    <mergeCell ref="B34:E34"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="B21:E21 B1:C1 F1:XFD1 B2:XFD20">
     <cfRule type="cellIs" dxfId="44" priority="14" operator="between">
-      <formula>$E$38</formula>
       <formula>$E$39</formula>
+      <formula>$E$40</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41391,42 +41527,42 @@
       <selection pane="topRight" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="48" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.28515625" customWidth="1"/>
-    <col min="50" max="50" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="51" max="54" width="9.140625" customWidth="1"/>
-    <col min="55" max="66" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="9.140625" customWidth="1"/>
-    <col min="68" max="71" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="9.140625" customWidth="1"/>
-    <col min="74" max="79" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="9.140625" customWidth="1"/>
-    <col min="81" max="89" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="90" max="95" width="9.140625" customWidth="1"/>
-    <col min="96" max="108" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="9.140625" customWidth="1"/>
-    <col min="110" max="123" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="9.140625" customWidth="1"/>
-    <col min="125" max="165" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="9.140625" customWidth="1"/>
-    <col min="167" max="331" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.59765625" customWidth="1"/>
+    <col min="9" max="9" width="9.1328125" customWidth="1"/>
+    <col min="10" max="48" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.265625" customWidth="1"/>
+    <col min="50" max="50" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="51" max="54" width="9.1328125" customWidth="1"/>
+    <col min="55" max="66" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="9.1328125" customWidth="1"/>
+    <col min="68" max="71" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="9.1328125" customWidth="1"/>
+    <col min="74" max="79" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="9.1328125" customWidth="1"/>
+    <col min="81" max="89" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="90" max="95" width="9.1328125" customWidth="1"/>
+    <col min="96" max="108" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="9.1328125" customWidth="1"/>
+    <col min="110" max="123" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="9.1328125" customWidth="1"/>
+    <col min="125" max="165" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="9.1328125" customWidth="1"/>
+    <col min="167" max="331" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:331" s="83" customFormat="1" ht="120" customHeight="1">
+    <row r="1" spans="1:331" s="83" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="83" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:331" s="14" customFormat="1" ht="16.5" thickBot="1">
+    <row r="2" spans="1:331" s="14" customFormat="1" ht="15.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:331" s="76" customFormat="1" ht="16.5" thickBot="1">
+    <row r="3" spans="1:331" s="76" customFormat="1" ht="15.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="72" t="s">
         <v>0</v>
       </c>
@@ -42743,7 +42879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:331" ht="16.5" thickBot="1">
+    <row r="4" spans="1:331" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>15</v>
       </c>
@@ -44068,7 +44204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:331" ht="16.5" thickBot="1">
+    <row r="5" spans="1:331" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>16</v>
       </c>
@@ -45393,7 +45529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:331" ht="16.5" thickBot="1">
+    <row r="6" spans="1:331" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>17</v>
       </c>
@@ -46718,7 +46854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:331" ht="16.5" thickBot="1">
+    <row r="7" spans="1:331" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>18</v>
       </c>
@@ -48043,7 +48179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:331" ht="16.5" thickBot="1">
+    <row r="8" spans="1:331" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>19</v>
       </c>
@@ -49368,7 +49504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:331" ht="16.5" thickBot="1">
+    <row r="9" spans="1:331" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>20</v>
       </c>
@@ -50693,7 +50829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:331" ht="15.75">
+    <row r="10" spans="1:331" ht="15.4" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>21</v>
       </c>
@@ -52018,12 +52154,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:331" ht="15.75" thickBot="1">
+    <row r="11" spans="1:331" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:331" ht="16.5" thickBot="1">
+    <row r="12" spans="1:331" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="str">
         <f ca="1">OFFSET(A3,A11,0,1,1)</f>
         <v>Sn</v>
@@ -53349,7 +53485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="86" t="s">
         <v>7</v>
       </c>
@@ -53365,7 +53501,7 @@
       <c r="K36" s="87"/>
       <c r="L36" s="88"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="89"/>
       <c r="B37" s="90"/>
       <c r="C37" s="90"/>
@@ -53379,7 +53515,7 @@
       <c r="K37" s="90"/>
       <c r="L37" s="91"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="92" t="s">
         <v>22</v>
       </c>
@@ -53395,7 +53531,7 @@
       <c r="K38" s="93"/>
       <c r="L38" s="94"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>23</v>
       </c>
@@ -53411,7 +53547,7 @@
       <c r="K39" s="17"/>
       <c r="L39" s="18"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
         <v>24</v>
       </c>
@@ -53427,7 +53563,7 @@
       <c r="K40" s="17"/>
       <c r="L40" s="18"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="92" t="s">
         <v>25</v>
       </c>
@@ -53443,7 +53579,7 @@
       <c r="K41" s="93"/>
       <c r="L41" s="94"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="92" t="s">
         <v>26</v>
       </c>
@@ -53459,7 +53595,7 @@
       <c r="K42" s="93"/>
       <c r="L42" s="94"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="85" t="s">
         <v>27</v>
       </c>
@@ -53475,7 +53611,7 @@
       <c r="K43" s="85"/>
       <c r="L43" s="85"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="85" t="s">
         <v>28</v>
       </c>
@@ -53491,7 +53627,7 @@
       <c r="K44" s="85"/>
       <c r="L44" s="85"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="85" t="s">
         <v>29</v>
       </c>
@@ -53507,7 +53643,7 @@
       <c r="K45" s="85"/>
       <c r="L45" s="85"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="84" t="s">
         <v>30</v>
       </c>
@@ -53640,53 +53776,53 @@
       <selection pane="topRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="14" width="8.85546875" customWidth="1"/>
-    <col min="15" max="45" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.28515625" customWidth="1"/>
-    <col min="47" max="47" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="51" width="9.140625" customWidth="1"/>
-    <col min="52" max="63" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="9.140625" customWidth="1"/>
-    <col min="65" max="68" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="70" width="9.140625" customWidth="1"/>
-    <col min="71" max="76" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="9.140625" customWidth="1"/>
-    <col min="78" max="86" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="87" max="92" width="9.140625" customWidth="1"/>
-    <col min="93" max="105" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="9.140625" customWidth="1"/>
-    <col min="107" max="120" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="9.140625" customWidth="1"/>
-    <col min="122" max="162" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="9.140625" customWidth="1"/>
-    <col min="164" max="165" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="9.42578125" customWidth="1"/>
-    <col min="167" max="260" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="9.28515625" customWidth="1"/>
-    <col min="262" max="263" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="9.28515625" customWidth="1"/>
-    <col min="265" max="328" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.59765625" customWidth="1"/>
+    <col min="2" max="2" width="12.265625" customWidth="1"/>
+    <col min="3" max="3" width="25.265625" customWidth="1"/>
+    <col min="4" max="4" width="22.265625" customWidth="1"/>
+    <col min="6" max="6" width="9.86328125" customWidth="1"/>
+    <col min="7" max="14" width="8.86328125" customWidth="1"/>
+    <col min="15" max="45" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.265625" customWidth="1"/>
+    <col min="47" max="47" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="48" max="51" width="9.1328125" customWidth="1"/>
+    <col min="52" max="63" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9.1328125" customWidth="1"/>
+    <col min="65" max="68" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="69" max="70" width="9.1328125" customWidth="1"/>
+    <col min="71" max="76" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="9.1328125" customWidth="1"/>
+    <col min="78" max="86" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="87" max="92" width="9.1328125" customWidth="1"/>
+    <col min="93" max="105" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="9.1328125" customWidth="1"/>
+    <col min="107" max="120" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="9.1328125" customWidth="1"/>
+    <col min="122" max="162" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="9.1328125" customWidth="1"/>
+    <col min="164" max="165" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="9.3984375" customWidth="1"/>
+    <col min="167" max="260" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="9.265625" customWidth="1"/>
+    <col min="262" max="263" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="9.265625" customWidth="1"/>
+    <col min="265" max="328" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:328" s="83" customFormat="1" ht="120" customHeight="1">
+    <row r="1" spans="1:328" s="83" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="83" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:328" s="32" customFormat="1" ht="0.6" customHeight="1"/>
-    <row r="3" spans="1:328" s="14" customFormat="1" ht="15.75">
+    <row r="2" spans="1:328" s="32" customFormat="1" ht="0.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:328" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:328" s="79" customFormat="1" ht="15.75">
+    <row r="4" spans="1:328" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="77" t="s">
         <v>0</v>
       </c>
@@ -54994,7 +55130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:328" s="24" customFormat="1" ht="15.75">
+    <row r="5" spans="1:328" s="24" customFormat="1" ht="15.4" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>31</v>
       </c>
@@ -56304,7 +56440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:328" s="24" customFormat="1" ht="15.75">
+    <row r="6" spans="1:328" s="24" customFormat="1" ht="15.4" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>32</v>
       </c>
@@ -57614,7 +57750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:328" s="24" customFormat="1" ht="15.75">
+    <row r="7" spans="1:328" s="24" customFormat="1" ht="15.4" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>33</v>
       </c>
@@ -58924,7 +59060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:328" s="24" customFormat="1" ht="15.75">
+    <row r="8" spans="1:328" s="24" customFormat="1" ht="15.4" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>34</v>
       </c>
@@ -60234,7 +60370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:328" s="24" customFormat="1" ht="15.75">
+    <row r="9" spans="1:328" s="24" customFormat="1" ht="15.4" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>35</v>
       </c>
@@ -61544,7 +61680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:328" s="24" customFormat="1" ht="15.75">
+    <row r="10" spans="1:328" s="24" customFormat="1" ht="15.4" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>36</v>
       </c>
@@ -62854,7 +62990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:328" s="24" customFormat="1" ht="15.75">
+    <row r="11" spans="1:328" s="24" customFormat="1" ht="15.4" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>37</v>
       </c>
@@ -64164,7 +64300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:328" s="24" customFormat="1" ht="15.75">
+    <row r="12" spans="1:328" s="24" customFormat="1" ht="15.4" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>38</v>
       </c>
@@ -65474,7 +65610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:328" s="24" customFormat="1" ht="15.75">
+    <row r="13" spans="1:328" s="24" customFormat="1" ht="15.4" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>39</v>
       </c>
@@ -66784,7 +66920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:328" s="24" customFormat="1" ht="15.75">
+    <row r="14" spans="1:328" s="24" customFormat="1" ht="15.4" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>40</v>
       </c>
@@ -67128,12 +67264,12 @@
       <c r="LO14" s="25"/>
       <c r="LP14" s="25"/>
     </row>
-    <row r="15" spans="1:328" ht="15.75" thickBot="1">
+    <row r="15" spans="1:328" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:328" ht="16.5" thickBot="1">
+    <row r="16" spans="1:328" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="str">
         <f ca="1">OFFSET(A4,A15,0,1,1)</f>
         <v>plastic-Cd</v>
@@ -68447,7 +68583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="95" t="s">
         <v>45</v>
       </c>
@@ -68460,7 +68596,7 @@
       <c r="H40" s="96"/>
       <c r="I40" s="97"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="98"/>
       <c r="B41" s="99"/>
       <c r="C41" s="99"/>
@@ -68471,7 +68607,7 @@
       <c r="H41" s="99"/>
       <c r="I41" s="100"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="92" t="s">
         <v>22</v>
       </c>
@@ -68484,7 +68620,7 @@
       <c r="H42" s="93"/>
       <c r="I42" s="94"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="19" t="s">
         <v>23</v>
       </c>
@@ -68497,7 +68633,7 @@
       <c r="H43" s="20"/>
       <c r="I43" s="21"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
         <v>24</v>
       </c>
@@ -68626,53 +68762,53 @@
       <selection pane="topRight" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="34.59765625" customWidth="1"/>
+    <col min="2" max="2" width="12.265625" customWidth="1"/>
+    <col min="3" max="3" width="25.265625" customWidth="1"/>
+    <col min="4" max="4" width="22.265625" customWidth="1"/>
+    <col min="6" max="6" width="9.1328125" customWidth="1"/>
     <col min="7" max="16" width="0" hidden="1" customWidth="1"/>
-    <col min="17" max="45" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.28515625" customWidth="1"/>
-    <col min="47" max="47" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="51" width="9.140625" customWidth="1"/>
-    <col min="52" max="63" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="9.140625" customWidth="1"/>
-    <col min="65" max="68" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="69" max="70" width="9.140625" customWidth="1"/>
-    <col min="71" max="76" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="9.140625" customWidth="1"/>
-    <col min="78" max="86" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="87" max="92" width="9.140625" customWidth="1"/>
-    <col min="93" max="105" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="9.140625" customWidth="1"/>
-    <col min="107" max="120" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="9.140625" customWidth="1"/>
-    <col min="122" max="162" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="9.140625" customWidth="1"/>
-    <col min="164" max="165" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="9.42578125" customWidth="1"/>
-    <col min="167" max="260" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="9.28515625" customWidth="1"/>
-    <col min="262" max="263" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="9.28515625" customWidth="1"/>
-    <col min="265" max="330" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="45" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.265625" customWidth="1"/>
+    <col min="47" max="47" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="48" max="51" width="9.1328125" customWidth="1"/>
+    <col min="52" max="63" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9.1328125" customWidth="1"/>
+    <col min="65" max="68" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="69" max="70" width="9.1328125" customWidth="1"/>
+    <col min="71" max="76" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="9.1328125" customWidth="1"/>
+    <col min="78" max="86" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="87" max="92" width="9.1328125" customWidth="1"/>
+    <col min="93" max="105" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="9.1328125" customWidth="1"/>
+    <col min="107" max="120" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="9.1328125" customWidth="1"/>
+    <col min="122" max="162" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="9.1328125" customWidth="1"/>
+    <col min="164" max="165" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="9.3984375" customWidth="1"/>
+    <col min="167" max="260" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="9.265625" customWidth="1"/>
+    <col min="262" max="263" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="9.265625" customWidth="1"/>
+    <col min="265" max="330" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:330" s="83" customFormat="1" ht="120" customHeight="1">
+    <row r="1" spans="1:330" s="83" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="83" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:330" s="33" customFormat="1" ht="15.75" customHeight="1"/>
-    <row r="3" spans="1:330" s="14" customFormat="1" ht="15.75">
+    <row r="2" spans="1:330" s="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:330" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:330" s="79" customFormat="1" ht="15.75">
+    <row r="4" spans="1:330" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="77" t="s">
         <v>0</v>
       </c>
@@ -69956,7 +70092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:330" s="24" customFormat="1" ht="15.75">
+    <row r="5" spans="1:330" s="24" customFormat="1" ht="15.4" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>46</v>
       </c>
@@ -70322,7 +70458,7 @@
       <c r="LQ5" s="25"/>
       <c r="LR5" s="25"/>
     </row>
-    <row r="6" spans="1:330" s="24" customFormat="1" ht="15.75">
+    <row r="6" spans="1:330" s="24" customFormat="1" ht="15.4" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>47</v>
       </c>
@@ -71628,7 +71764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:330" ht="15.75" thickBot="1">
+    <row r="7" spans="1:330" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
@@ -71636,7 +71772,7 @@
         <v>0.4551</v>
       </c>
     </row>
-    <row r="8" spans="1:330" ht="16.5" thickBot="1">
+    <row r="8" spans="1:330" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="str">
         <f ca="1">OFFSET(A4,A7,0,1,1)</f>
         <v>nickel CRM</v>
@@ -72950,7 +73086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="95" t="s">
         <v>45</v>
       </c>
@@ -72963,7 +73099,7 @@
       <c r="H32" s="96"/>
       <c r="I32" s="97"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="98"/>
       <c r="B33" s="99"/>
       <c r="C33" s="99"/>
@@ -72974,7 +73110,7 @@
       <c r="H33" s="99"/>
       <c r="I33" s="100"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="92" t="s">
         <v>22</v>
       </c>
@@ -72987,7 +73123,7 @@
       <c r="H34" s="93"/>
       <c r="I34" s="94"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
         <v>23</v>
       </c>
@@ -73000,7 +73136,7 @@
       <c r="H35" s="20"/>
       <c r="I35" s="21"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
         <v>24</v>
       </c>
